--- a/spreadsheet/macrofree/virtualmachines_sg_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/virtualmachines_sg_checklist.ko.xlsx
@@ -1236,7 +1236,7 @@
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>용량은 사용자가 사용하도록 예약되어 있으며 해당 SLA의 범위 내에서 사용할 수 있습니다. 용량 예약은 더 이상 필요하지 않을 때 삭제할 수 있으며 청구는 사용량을 기반으로 합니다.</t>
+          <t>용량은 사용자가 사용하도록 예약되어 있으며 해당 SLA 범위 내에서 사용할 수 있습니다. 용량 예약은 더 이상 필요하지 않을 때 삭제할 수 있으며 청구는 사용량을 기반으로 합니다.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="D15" s="21" t="inlineStr">
         <is>
-          <t>Azure에서 제공하는 기능은 여러 테넌트에서 캡처된 신호를 기반으로 하며 사용자 지정 컨트롤보다 리소스를 더 잘 보호할 수 있습니다. 정책을 사용하여 이러한 제어를 적용할 수도 있습니다.</t>
+          <t>Azure에서 제공하는 기능은 많은 테넌트에서 캡처된 신호를 기반으로 하며 사용자 지정 컨트롤보다 리소스를 더 잘 보호할 수 있습니다. 정책을 사용하여 이러한 제어를 적용할 수도 있습니다.</t>
         </is>
       </c>
       <c r="E15" s="21" t="n"/>
@@ -1333,7 +1333,7 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>(VM, 확장 집합) 프로비저닝된 리소스에 organization-recommended 태그를 적용합니다.</t>
+          <t>(VM, 확장 집합) 프로비저닝된 리소스에 조직 권장 태그를 적용합니다.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>보안 프로필의 기능은 VM이 생성될 때 자동으로 활성화됩니다.  자세한 내용은 Virtual Machine Scale Sets 대한 Azure 보안 기준을 참조하세요.</t>
+          <t>보안 프로필의 기능은 VM이 생성될 때 자동으로 활성화됩니다.  자세한 내용은 Virtual Machine Scale Sets에 대한 Azure 보안 기준을 참조하세요.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1469,7 +1469,7 @@
       <c r="B20" s="21" t="n"/>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>(VM, 확장 집합) 위협으로부터 보호하는 확장을 VM에 포함합니다.  예를 들어 - Windows 및 Linux용 Key Vault 확장 - Microsoft Entra ID 인증 - Azure Cloud Services 및 Virtual Machines용 Microsoft Antimalware - Windows 및 Linux용 Azure Disk Encryption 확장입니다.</t>
+          <t>(VM, 확장 집합) 위협으로부터 보호하는 확장을 VM에 포함합니다.  예를 들어 - Windows 및 Linux용 Key Vault 확장 - Microsoft Entra ID 인증 - Azure Cloud Services 및 Virtual Machines용 Microsoft 맬웨어 방지 프로그램 - Windows 및 Linux용 Azure Disk Encryption 확장입니다.</t>
         </is>
       </c>
       <c r="D20" s="21" t="inlineStr">
@@ -1537,12 +1537,12 @@
       <c r="B22" s="21" t="n"/>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>(VM, 확장 집합) VM의 SKU와 연결된 디스크 옵션을 평가합니다.  성능 요구 사항을 결정하는 동시에 스토리지 용량 요구 사항을 염두에 두고 변동하는 작업 패턴에 대해 설명합니다.  예를 들어 Azure Premium SSD v2 디스크를 사용하면 디스크 크기에 관계없이 성능을 세부적으로 조정할 수 있습니다.</t>
+          <t>(VM, 확장 집합) VM의 SKU와 연결된 디스크 옵션을 평가합니다.  성능 요구 사항을 결정하는 동시에 스토리지 용량 요구 사항을 염두에 두고 변동하는 작업 패턴을 고려합니다.  예를 들어 Azure Premium SSD v2 디스크를 사용하면 디스크 크기에 관계없이 성능을 세부적으로 조정할 수 있습니다.</t>
         </is>
       </c>
       <c r="D22" s="21" t="inlineStr">
         <is>
-          <t>일부 고성능 디스크 유형은 추가 비용 최적화 기능 및 전략을 제공합니다.  프리미엄 SSD v2 디스크의 조정 기능은 과도하게 프로비전하지 않고 고성능을 제공하기 때문에 비용을 절감할 수 있으며, 그렇지 않으면 리소스가 충분히 활용되지 않을 수 있습니다.</t>
+          <t>일부 고성능 디스크 유형은 추가 비용 최적화 기능 및 전략을 제공합니다.  프리미엄 SSD v2 디스크의 조정 기능은 과도하게 프로비전하지 않고 고성능을 제공하기 때문에 비용을 절감할 수 있으며, 그렇지 않으면 리소스 활용도가 떨어질 수 있습니다.</t>
         </is>
       </c>
       <c r="E22" s="21" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>(VM, 확장 집합) Azure 하이브리드 혜택을 사용하여 라이선스 이동성을 활용하세요. VM에는 사용자 고유의 온-프레미스 Windows Server OS 라이선스를 Azure로 가져올 수 있는 라이선스 옵션이 있습니다.  또한 Azure 하이브리드 혜택을 통해 특정 Linux 구독을 Azure로 가져올 수 있습니다.</t>
+          <t>(VM, 확장 집합) Azure 하이브리드 혜택을 사용하여 라이선스 이동을 활용하세요. VM에는 사용자 고유의 온-프레미스 Windows Server OS 라이선스를 Azure로 가져올 수 있는 라이선스 옵션이 있습니다.  또한 Azure 하이브리드 혜택을 통해 특정 Linux 구독을 Azure로 가져올 수 있습니다.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>온-프레미스 라이선스를 최대화하는 동시에 클라우드의 이점을 활용할 수 있습니다.</t>
+          <t>온-프레미스 라이선스를 극대화하는 동시에 클라우드의 이점을 얻을 수 있습니다.</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1673,12 +1673,12 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>(확장 집합) 유연한 오케스트레이션 모드의 Virtual Machine Scale Sets 워크로드의 배포 및 관리를 간소화하는 데 도움이 될 수 있습니다. 예를 들어 자동 복구를 사용하여 자체 복구를 쉽게 관리할 수 있습니다.</t>
+          <t>(확장 집합) 유연한 오케스트레이션 모드의 Virtual Machine Scale Sets 워크로드의 배포 및 관리를 간소화하는 데 도움이 될 수 있습니다. 예를 들어 자동 복구를 사용하여 자가 복구를 쉽게 관리할 수 있습니다.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
         <is>
-          <t>유연한 오케스트레이션은 VM 인스턴스를 대규모로 관리할 수 있습니다. 개별 VM을 처리하면 운영 오버헤드가 추가됩니다.  예를 들어 VM 인스턴스를 삭제하면 연결된 디스크와 NIC도 자동으로 삭제됩니다. VM 인스턴스는 업데이트 작업으로 인해 서비스가 중단되지 않도록 여러 장애 도메인에 분산되어 있습니다.</t>
+          <t>유연한 오케스트레이션을 통해 VM 인스턴스를 대규모로 관리할 수 있습니다. 개별 VM을 처리하면 운영 오버헤드가 추가됩니다.  예를 들어 VM 인스턴스를 삭제하면 연결된 디스크 및 NIC도 자동으로 삭제됩니다. VM 인스턴스는 업데이트 작업으로 인해 서비스가 중단되지 않도록 여러 장애 도메인에 분산되어 있습니다.</t>
         </is>
       </c>
       <c r="E26" s="21" t="n"/>
@@ -1712,7 +1712,7 @@
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>보안은 업그레이드의 주된 이유입니다. 인스턴스에 대한 보안 보증은 시간이 지남에 따라 감소해서는 안 됩니다.  롤링 업그레이드는 일괄적으로 수행되므로 모든 인스턴스가 동시에 다운되지 않습니다.</t>
+          <t>보안은 업그레이드의 주된 이유입니다. 인스턴스에 대한 보안 보증은 시간이 지남에 따라 감소해서는 안 됩니다.  롤링 업그레이드는 배치로 수행되므로 모든 인스턴스가 동시에 다운되지 않습니다.</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1773,12 +1773,12 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>사전 구축된 소프트웨어 구성 요소를 부트스트래핑의 일부로 확장으로 설치합니다.  Azure는 VM에 대한 유틸리티 애플리케이션을 구성, 모니터링, 보안 및 제공하는 데 사용할 수 있는 많은 확장을 지원합니다.   확장에서 자동 업그레이드를 사용하도록 설정합니다.</t>
+          <t>부트스트래핑의 일부로 사전 구축된 소프트웨어 구성 요소를 확장으로 설치합니다.  Azure는 VM에 대한 유틸리티 응용 프로그램을 구성, 모니터링, 보안 및 제공하는 데 사용할 수 있는 많은 확장을 지원합니다.   확장에서 자동 업그레이드를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
         <is>
-          <t>확장은 각 VM에서 수동으로 설치, 구성 또는 업그레이드할 필요 없이 대규모로 소프트웨어 설치를 간소화하는 데 도움이 될 수 있습니다.</t>
+          <t>확장은 각 VM에서 수동으로 설치, 구성 또는 업그레이드할 필요 없이 규모에 맞게 소프트웨어 설치를 간소화하는 데 도움이 될 수 있습니다.</t>
         </is>
       </c>
       <c r="E29" s="21" t="n"/>
@@ -1906,12 +1906,12 @@
       <c r="B33" s="21" t="n"/>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>(VM, 확장 집합)  기존 워크로드 및 VM SKU의 디스크 성능을 분석하여 스토리지 프로필을 설정합니다.  프로덕션 VM에 프리미엄 SSD를 사용합니다. 프리미엄 SSD v2를 사용하여 디스크의 성능을 조정합니다. 로컬로 연결된 NVMe 장치를 사용합니다.</t>
+          <t>(VM, 확장 집합)  기존 워크로드 및 VM SKU의 디스크 성능을 분석하여 스토리지 프로필을 설정합니다.  프로덕션 VM에 프리미엄 SSD를 사용합니다. 프리미엄 SSD v2를 사용하여 디스크의 성능을 조정합니다. 로컬로 연결된 NVMe 디바이스를 사용합니다.</t>
         </is>
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>프리미엄 SSD는 I/O 집약적 워크로드가 있는 고성능 및 짧은 대기 시간 디스크 지원 VM을 제공합니다.  프리미엄 SSD v2는 디스크 크기 조정이 필요하지 않으므로 과도한 오버 프로비저닝 없이 고성능을 가능하게 하고 사용되지 않는 용량의 비용을 최소화합니다.  VM SKU에서 사용할 수 있는 경우 로컬로 연결된 NVMe 또는 유사한 디바이스는 특히 높은 IOPS(초당 입력/출력 작업 수)와 짧은 대기 시간이 필요한 사용 사례에 높은 성능을 제공할 수 있습니다.</t>
+          <t>프리미엄 SSD는 I/O 집약적 워크로드가 있는 고성능 및 짧은 대기 시간 디스크 지원 VM을 제공합니다.  프리미엄 SSD v2는 디스크 크기 조정이 필요하지 않으므로 과도한 오버 프로비저닝 없이 고성능을 가능하게 하고 사용되지 않는 용량 비용을 최소화합니다.  VM SKU에서 사용할 수 있는 경우 로컬로 연결된 NVMe 또는 유사한 디바이스는 특히 높은 IOPS(초당 입력/출력 작업 수)와 짧은 대기 시간이 필요한 사용 사례에 대해 고성능을 제공할 수 있습니다.</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>VM에 대한 SR-IOV(단일 루트 I/O 가상화)를 통해 네트워킹 성능을 크게 향상시킬 수 있습니다.</t>
+          <t>VM에 대한 SR-IOV(단일 루트 I/O 가상화)를 가능하게 하여 네트워킹 성능을 크게 향상시킵니다.</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="D35" s="21" t="inlineStr">
         <is>
-          <t>응용 프로그램 수요가 증가하면 확장 집합의 VM 인스턴스에 대한 부하가 증가합니다. 자동 크기 조정 규칙은 수요를 충족할 수 있는 충분한 리소스가 있는지 확인합니다.</t>
+          <t>애플리케이션 수요가 증가하면 확장 집합의 VM 인스턴스에 대한 부하가 증가합니다. 자동 크기 조정 규칙은 수요를 충족할 수 있는 충분한 리소스가 있는지 확인합니다.</t>
         </is>
       </c>
       <c r="E35" s="21" t="n"/>

--- a/spreadsheet/macrofree/virtualmachines_sg_checklist.ko.xlsx
+++ b/spreadsheet/macrofree/virtualmachines_sg_checklist.ko.xlsx
@@ -1066,7 +1066,7 @@
       </c>
       <c r="D8" s="21" t="inlineStr">
         <is>
-          <t>확장을 위해 애플리케이션의 미래를 보장하고 지역 또는 가용성 영역의 장애 도메인 간에 VM을 분산하는 고가용성 보장을 활용하세요.</t>
+          <t>확장을 위해 애플리케이션의 미래를 보장하고 지역 또는 가용성 영역의 장애 도메인 간에 VM을 분산하는 고가용성 보장을 활용합니다.</t>
         </is>
       </c>
       <c r="E8" s="21" t="n"/>
@@ -1095,7 +1095,7 @@
       <c r="B9" s="21" t="n"/>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>(가상 머신) VM에서 인스턴스 상태를 내보내는 heath 엔드포인트를 구현합니다.  (확장 집합) 선호하는 복구 작업을 지정하여 확장 집합에서 자동 복구를 사용하도록 설정합니다.  VM의 상태가 변경되는 경우 자동 복구가 일시 중지되는 시간 프레임을 설정하는 것이 좋습니다.</t>
+          <t>(가상 머신) VM에서 인스턴스 상태를 내보내는 heath 엔드포인트를 구현합니다.  (확장 집합) 기본 복구 작업을 지정하여 확장 집합에서 자동 복구를 사용하도록 설정합니다.  VM의 상태가 변경되는 경우 자동 복구가 일시 중지되는 시간 프레임을 설정하는 것이 좋습니다.</t>
         </is>
       </c>
       <c r="D9" s="21" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D11" s="21" t="inlineStr">
         <is>
-          <t>이 옵션은 장애 도메인을 격리합니다. 유지 보수 기간 동안 하나의 장애 도메인이 업데이트되면 다른 장애 도메인에서 VM 인스턴스를 사용할 수 있습니다.</t>
+          <t>이 옵션은 장애 도메인을 격리합니다. 유지 보수 기간 동안 하나의 장애 도메인이 업데이트되면 VM 인스턴스를 다른 장애 도메인에서 사용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E11" s="21" t="n"/>
@@ -1197,12 +1197,12 @@
       <c r="B12" s="21" t="n"/>
       <c r="C12" s="21" t="inlineStr">
         <is>
-          <t>(확장 집합) 확장 집합의 가용성 영역에 배포합니다. 각 영역에 두 개 이상의 인스턴스를 설정합니다. 영역 분산은 인스턴스를 영역 간에 균등하게 분산합니다.</t>
+          <t>(확장 집합) 확장 집합의 가용성 영역에 배포합니다. 각 영역에 인스턴스를 두 개 이상 설정합니다. 영역 분산은 인스턴스를 여러 영역에 균등하게 분산합니다.</t>
         </is>
       </c>
       <c r="D12" s="21" t="inlineStr">
         <is>
-          <t>VM 인스턴스는 로컬 오류에 대한 내성이 있는 각 Azure 지역 내에서 물리적으로 분리된 위치에 프로비전됩니다.  리소스 가용성에 따라 영역 간에 균일하지 않은 수의 인스턴스가 있을 수 있음을 명심하십시오. 영역 분산은 한 영역이 다운된 경우 다른 영역에 충분한 인스턴스를 갖도록 하여 가용성을 지원합니다.  각 영역에 있는 두 개의 인스턴스는 업그레이드 중에 버퍼를 제공합니다.</t>
+          <t>VM 인스턴스는 로컬 오류에 대한 내성이 있는 각 Azure 지역 내에서 물리적으로 분리된 위치에 프로비전됩니다.  리소스 가용성에 따라 영역 간에 인스턴스 수가 고르지 않을 수 있습니다. 영역 분산은 한 영역이 다운된 경우 다른 영역에 충분한 인스턴스를 갖도록 하여 가용성을 지원합니다.  각 영역에 있는 두 개의 인스턴스는 업그레이드 중에 버퍼를 제공합니다.</t>
         </is>
       </c>
       <c r="E12" s="21" t="n"/>
@@ -1236,7 +1236,7 @@
       </c>
       <c r="D13" s="21" t="inlineStr">
         <is>
-          <t>용량은 사용자가 사용하도록 예약되어 있으며 해당 SLA 범위 내에서 사용할 수 있습니다. 용량 예약은 더 이상 필요하지 않을 때 삭제할 수 있으며 청구는 사용량을 기반으로 합니다.</t>
+          <t>용량은 사용자가 사용하도록 예약되어 있으며 해당 SLA의 범위 내에서 사용할 수 있습니다. 용량 예약은 더 이상 필요하지 않을 때 삭제할 수 있으며 청구는 사용량을 기반으로 합니다.</t>
         </is>
       </c>
       <c r="E13" s="21" t="n"/>
@@ -1333,7 +1333,7 @@
       <c r="B16" s="21" t="n"/>
       <c r="C16" s="21" t="inlineStr">
         <is>
-          <t>(VM, 확장 집합) 프로비저닝된 리소스에 조직 권장 태그를 적용합니다.</t>
+          <t>(VM, 확장 집합) 프로비저닝된 리소스에 organization-recommended 태그를 적용합니다.</t>
         </is>
       </c>
       <c r="D16" s="21" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="D17" s="21" t="inlineStr">
         <is>
-          <t>보안 프로필의 기능은 VM이 생성될 때 자동으로 활성화됩니다.  자세한 내용은 Virtual Machine Scale Sets에 대한 Azure 보안 기준을 참조하세요.</t>
+          <t>보안 프로필의 기능은 VM이 생성될 때 자동으로 활성화됩니다.  자세한 내용은 Virtual Machine Scale Sets 대한 Azure 보안 기준을 참조하세요.</t>
         </is>
       </c>
       <c r="E17" s="21" t="n"/>
@@ -1639,12 +1639,12 @@
       <c r="B25" s="21" t="n"/>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>(VM, 확장 집합) Azure 하이브리드 혜택을 사용하여 라이선스 이동을 활용하세요. VM에는 사용자 고유의 온-프레미스 Windows Server OS 라이선스를 Azure로 가져올 수 있는 라이선스 옵션이 있습니다.  또한 Azure 하이브리드 혜택을 통해 특정 Linux 구독을 Azure로 가져올 수 있습니다.</t>
+          <t>(VM, 확장 집합) Azure 하이브리드 혜택을 사용하여 라이선스 이동을 활용하세요. VM에는 고유한 온-프레미스 Windows Server OS 라이선스를 Azure로 가져올 수 있는 라이선스 옵션이 있습니다.  또한 Azure 하이브리드 혜택을 통해 특정 Linux 구독을 Azure로 가져올 수 있습니다.</t>
         </is>
       </c>
       <c r="D25" s="21" t="inlineStr">
         <is>
-          <t>온-프레미스 라이선스를 극대화하는 동시에 클라우드의 이점을 얻을 수 있습니다.</t>
+          <t>온-프레미스 라이선스를 극대화하는 동시에 클라우드의 이점을 활용할 수 있습니다.</t>
         </is>
       </c>
       <c r="E25" s="21" t="n"/>
@@ -1673,7 +1673,7 @@
       <c r="B26" s="21" t="n"/>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>(확장 집합) 유연한 오케스트레이션 모드의 Virtual Machine Scale Sets 워크로드의 배포 및 관리를 간소화하는 데 도움이 될 수 있습니다. 예를 들어 자동 복구를 사용하여 자가 복구를 쉽게 관리할 수 있습니다.</t>
+          <t>(확장 집합) 유연한 오케스트레이션 모드의 Virtual Machine Scale Sets 워크로드의 배포 및 관리를 간소화하는 데 도움이 될 수 있습니다. 예를 들어 자동 복구를 사용하여 자체 복구를 쉽게 관리할 수 있습니다.</t>
         </is>
       </c>
       <c r="D26" s="21" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="D27" s="21" t="inlineStr">
         <is>
-          <t>보안은 업그레이드의 주된 이유입니다. 인스턴스에 대한 보안 보증은 시간이 지남에 따라 감소해서는 안 됩니다.  롤링 업그레이드는 배치로 수행되므로 모든 인스턴스가 동시에 다운되지 않습니다.</t>
+          <t>보안은 업그레이드의 주된 이유입니다. 인스턴스에 대한 보안 보증은 시간이 지남에 따라 감소해서는 안 됩니다.  롤링 업그레이드는 일괄적으로 수행되므로 모든 인스턴스가 동시에 다운되지 않습니다.</t>
         </is>
       </c>
       <c r="E27" s="21" t="n"/>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="D28" s="21" t="inlineStr">
         <is>
-          <t>확장 집합의 VM이 만들어지고 지정된 앱이 미리 설치되어 관리가 더 쉬워집니다.</t>
+          <t>확장 집합의 VM이 만들어지고 지정된 앱이 미리 설치되므로 관리가 더 쉬워집니다.</t>
         </is>
       </c>
       <c r="E28" s="21" t="n"/>
@@ -1773,7 +1773,7 @@
       <c r="B29" s="21" t="n"/>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>부트스트래핑의 일부로 사전 구축된 소프트웨어 구성 요소를 확장으로 설치합니다.  Azure는 VM에 대한 유틸리티 응용 프로그램을 구성, 모니터링, 보안 및 제공하는 데 사용할 수 있는 많은 확장을 지원합니다.   확장에서 자동 업그레이드를 사용하도록 설정합니다.</t>
+          <t>사전 구축된 소프트웨어 구성 요소를 부트스트래핑의 일부로 확장으로 설치합니다.  Azure는 VM에 대한 유틸리티 응용 프로그램을 구성, 모니터링, 보안 및 제공하는 데 사용할 수 있는 많은 확장을 지원합니다.   확장에서 자동 업그레이드를 사용하도록 설정합니다.</t>
         </is>
       </c>
       <c r="D29" s="21" t="inlineStr">
@@ -1806,7 +1806,7 @@
       <c r="B30" s="21" t="n"/>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>(VM, 확장 집합) VM 인스턴스의 상태를 모니터링하고 측정합니다.  모니터 에이전트 확장을 VM에 배포하여 OS별 데이터 수집 규칙을 사용하여 게스트 OS에서 모니터링 데이터를 수집합니다.  VM 인사이트를 사용하여 상태 및 성능을 모니터링하고 수집된 데이터에서 추세를 볼 수 있습니다. 부팅 진단을 사용하여 VM이 부팅될 때 정보를 가져옵니다. 부팅 진단은 부팅 실패도 진단합니다.</t>
+          <t>(VM, 확장 집합) VM 인스턴스의 상태를 모니터링하고 측정합니다.  Monitor 에이전트 확장을 VM에 배포하여 OS별 데이터 수집 규칙을 사용하여 게스트 OS에서 모니터링 데이터를 수집합니다.  VM 인사이트를 사용하여 상태 및 성능을 모니터링하고 수집된 데이터에서 추세를 볼 수 있습니다. 부팅 진단을 사용하여 VM이 부팅될 때 정보를 가져옵니다. 부트 진단은 부트 실패도 진단합니다.</t>
         </is>
       </c>
       <c r="D30" s="21" t="inlineStr">
@@ -1839,7 +1839,7 @@
       <c r="B31" s="21" t="n"/>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>(VM, 확장 집합) 용량 계획에 맞는 VM에 대한 SKU를 선택합니다. 부적합한 SKU를 필터링할 수 있도록 코어 수, 메모리, 스토리지 및 네트워크 대역폭을 포함한 워크로드 요구 사항을 잘 이해해야 합니다.</t>
+          <t>(VM, 확장 집합) 용량 계획에 맞는 VM용 SKU를 선택합니다. 부적합한 SKU를 필터링할 수 있도록 코어 수, 메모리, 스토리지 및 네트워크 대역폭을 포함한 워크로드 요구 사항을 잘 이해해야 합니다.</t>
         </is>
       </c>
       <c r="D31" s="21" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="D33" s="21" t="inlineStr">
         <is>
-          <t>프리미엄 SSD는 I/O 집약적 워크로드가 있는 고성능 및 짧은 대기 시간 디스크 지원 VM을 제공합니다.  프리미엄 SSD v2는 디스크 크기 조정이 필요하지 않으므로 과도한 오버 프로비저닝 없이 고성능을 가능하게 하고 사용되지 않는 용량 비용을 최소화합니다.  VM SKU에서 사용할 수 있는 경우 로컬로 연결된 NVMe 또는 유사한 디바이스는 특히 높은 IOPS(초당 입력/출력 작업 수)와 짧은 대기 시간이 필요한 사용 사례에 대해 고성능을 제공할 수 있습니다.</t>
+          <t>프리미엄 SSD는 I/O 집약적 워크로드가 있는 고성능 및 짧은 대기 시간 디스크 지원 VM을 제공합니다.  프리미엄 SSD v2는 디스크 크기 조정이 필요하지 않으므로 과도한 오버 프로비저닝 없이 고성능을 가능하게 하고 사용하지 않는 용량의 비용을 최소화합니다.  VM SKU에서 사용할 수 있는 경우 로컬로 연결된 NVMe 또는 유사한 디바이스는 특히 높은 IOPS(초당 입력/출력 작업 수) 및 짧은 대기 시간이 필요한 사용 사례에 대해 고성능을 제공할 수 있습니다.</t>
         </is>
       </c>
       <c r="E33" s="21" t="n"/>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="D34" s="21" t="inlineStr">
         <is>
-          <t>VM에 대한 SR-IOV(단일 루트 I/O 가상화)를 가능하게 하여 네트워킹 성능을 크게 향상시킵니다.</t>
+          <t>VM에 대한 SR-IOV(단일 루트 I/O 가상화)를 활성화하여 네트워킹 성능을 크게 향상시킵니다.</t>
         </is>
       </c>
       <c r="E34" s="21" t="n"/>
